--- a/Reports/heart/heart_distcorrgan_50_1.xlsx
+++ b/Reports/heart/heart_distcorrgan_50_1.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1394</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1186</v>
+        <v>0.1415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.2718</v>
+        <v>1.3866</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9167</v>
+        <v>1.3071</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1504</v>
+        <v>0.2804</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7403</v>
+        <v>2.0865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1202</v>
+        <v>0.1733</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.3091</v>
+        <v>1.6066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0435</v>
+        <v>0.1246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6359</v>
+        <v>0.6087</v>
       </c>
     </row>
     <row r="13">
